--- a/biology/Neurosciences/Lobe_pariétal/Lobe_pariétal.xlsx
+++ b/biology/Neurosciences/Lobe_pariétal/Lobe_pariétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lobe_pari%C3%A9tal</t>
+          <t>Lobe_pariétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lobe pariétal (ou cortex pariétal) est une région du cerveau des vertébrés. Il est situé en arrière du lobe frontal, au-dessus des lobes temporal et occipital.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lobe_pari%C3%A9tal</t>
+          <t>Lobe_pariétal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'un point de vue anatomique, le lobe pariétal est la partie du cortex cérébral délimitée par les sillons suivants :
 le sillon central (anciennement scissure de Rolando) sépare le lobe frontal du lobe pariétal en avant ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lobe_pari%C3%A9tal</t>
+          <t>Lobe_pariétal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lobe pariétal est considéré comme un cortex associatif hétéromodal. C'est-à-dire qu'il joue un rôle important dans l'intégration des informations issues des différentes modalités sensorielles (vision, toucher, audition). Cette région du cerveau est impliquée dans la perception de l'espace et dans l'attention et, plus particulièrement, le cortex pariétal supérieur est impliqué dans le système visuel et dans le contrôle visuo-moteur des mouvements, notamment des saccades oculaires.
 Au cours de l'évolution de l'homme et des macaques et chimpanzés, le lobe pariétal, tout comme le lobe frontal, a subi une importante expansion corticale c’est-à-dire que la taille de cette région a augmenté plus vite que les autres régions cérébrales.
